--- a/チーム資料/【微糖】チームコンセプト資料.xlsx
+++ b/チーム資料/【微糖】チームコンセプト資料.xlsx
@@ -15,14 +15,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ソフトウェア企画書（開発計画）'!$A$1:$E$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">チーム担当一覧!$A$1:$F$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">課題とリスクの管理表!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">課題とリスクの管理表!$A$1:$K$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -558,9 +558,6 @@
   </si>
   <si>
     <t>記入日</t>
-  </si>
-  <si>
-    <t>担当者</t>
   </si>
   <si>
     <t>優先度</t>
@@ -917,14 +914,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VScode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PHP(CakePHP)、JavaScript、MySQL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>無駄遣いしてしまう人、春から新生活を迎える人</t>
     <rPh sb="0" eb="3">
       <t>ムダヅカ</t>
@@ -1037,9 +1026,6 @@
     <t>課題</t>
   </si>
   <si>
-    <t>ページ遷移をできるだけ減らす</t>
-  </si>
-  <si>
     <t>テスト環境から本番環境へ</t>
     <rPh sb="3" eb="5">
       <t>カンキョウ</t>
@@ -1090,10 +1076,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>スマホに対応したページの作成</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>入力項目を削減する</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -1107,38 +1089,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>費目のテンプレートを作成する</t>
-    <rPh sb="0" eb="2">
-      <t>ヒモク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>支出欄に色付け機能を実装する</t>
-    <rPh sb="0" eb="2">
-      <t>シシュツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>高</t>
   </si>
   <si>
@@ -1190,6 +1140,100 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>センテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Vscode、GitHub</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP(Laravel)、JavaScript、MySQL、HTML/CSS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>フレームワークの知識不足</t>
+    <rPh sb="8" eb="12">
+      <t>チシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コーディング開始までに勉強する</t>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>重川</t>
+  </si>
+  <si>
+    <t>費目のテンプレートを用意する（設計）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>支出欄に色付け機能を実装する（設計）</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページ遷移をできるだけ減らす（設計）</t>
+    <rPh sb="15" eb="17">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スマホに対応したページの作成（設計）</t>
+    <rPh sb="15" eb="17">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>対応期限</t>
+    <rPh sb="0" eb="4">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3799,17 +3843,17 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -3817,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -3825,7 +3869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -3833,7 +3877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -3842,52 +3886,52 @@
       </c>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="40"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -3895,7 +3939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -3903,7 +3947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
@@ -3924,29 +3968,29 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7265625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="41.26953125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="41.25" style="7" customWidth="1"/>
     <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3960,7 +4004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -3968,11 +4012,11 @@
         <v>0</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="38">
         <v>2</v>
       </c>
@@ -3980,11 +4024,11 @@
         <v>54</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="38">
         <v>3</v>
       </c>
@@ -3992,11 +4036,11 @@
         <v>55</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="38">
         <v>4</v>
       </c>
@@ -4004,13 +4048,13 @@
         <v>56</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>5</v>
       </c>
@@ -4018,11 +4062,11 @@
         <v>37</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="38">
         <v>6</v>
       </c>
@@ -4030,11 +4074,11 @@
         <v>57</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="38">
         <v>7</v>
       </c>
@@ -4042,11 +4086,11 @@
         <v>58</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="38">
         <v>8</v>
       </c>
@@ -4054,11 +4098,11 @@
         <v>59</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="38">
         <v>9</v>
       </c>
@@ -4066,11 +4110,11 @@
         <v>60</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="38">
         <v>10</v>
       </c>
@@ -4078,11 +4122,11 @@
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38">
         <v>11</v>
       </c>
@@ -4090,11 +4134,11 @@
         <v>61</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>12</v>
       </c>
@@ -4102,7 +4146,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D15" s="18"/>
     </row>
@@ -4128,24 +4172,24 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="54.36328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="54.375" style="7" customWidth="1"/>
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -4165,7 +4209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -4173,7 +4217,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -4181,7 +4225,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>2</v>
       </c>
@@ -4189,7 +4233,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -4197,7 +4241,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>3</v>
       </c>
@@ -4205,7 +4249,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -4213,7 +4257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>4</v>
       </c>
@@ -4221,19 +4265,19 @@
         <v>30</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>5</v>
       </c>
@@ -4241,19 +4285,19 @@
         <v>32</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>6</v>
       </c>
@@ -4261,19 +4305,19 @@
         <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>7</v>
       </c>
@@ -4281,17 +4325,17 @@
         <v>43</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="27"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -4299,35 +4343,35 @@
         <v>44</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -4335,7 +4379,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
@@ -4343,37 +4387,37 @@
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
@@ -4391,31 +4435,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="38.7265625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="41.6328125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="34" customWidth="1"/>
-    <col min="6" max="7" width="7.7265625" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="35"/>
+    <col min="2" max="2" width="12.5" style="34" customWidth="1"/>
+    <col min="3" max="3" width="38.75" style="35" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="34" customWidth="1"/>
+    <col min="7" max="8" width="7.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="41" t="s">
         <v>64</v>
       </c>
@@ -4431,185 +4476,223 @@
       <c r="E3" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="I3" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="47">
         <v>1</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E4" s="50">
         <v>43781</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>115</v>
+      <c r="F4" s="50">
+        <v>43811</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="47">
         <v>2</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E5" s="50">
         <v>43781</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>115</v>
+      <c r="F5" s="50">
+        <v>43811</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="47">
         <v>3</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E6" s="50">
         <v>43781</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>116</v>
+      <c r="F6" s="50">
+        <v>43811</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="47">
         <v>4</v>
       </c>
       <c r="B7" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>102</v>
-      </c>
       <c r="D7" s="49" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E7" s="50">
         <v>43781</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>114</v>
+      <c r="F7" s="50">
+        <v>43811</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="47">
         <v>5</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E8" s="50">
         <v>43781</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>113</v>
+      <c r="F8" s="50">
+        <v>43865</v>
       </c>
       <c r="G8" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="47">
         <v>6</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E9" s="50">
         <v>43781</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>112</v>
+      <c r="F9" s="50">
+        <v>43794</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="47">
         <v>7</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="50">
+        <v>43802</v>
+      </c>
+      <c r="F10" s="50">
+        <v>43812</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="47">
         <v>8</v>
       </c>
@@ -4617,11 +4700,12 @@
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
       <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+    </row>
+    <row r="12" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="47">
         <v>9</v>
       </c>
@@ -4629,11 +4713,12 @@
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <v>10</v>
       </c>
@@ -4641,11 +4726,12 @@
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-    </row>
-    <row r="14" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <v>11</v>
       </c>
@@ -4653,11 +4739,12 @@
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="47">
         <v>12</v>
       </c>
@@ -4665,11 +4752,12 @@
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
       <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-    </row>
-    <row r="16" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+    </row>
+    <row r="16" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="47">
         <v>13</v>
       </c>
@@ -4677,11 +4765,12 @@
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="47">
         <v>14</v>
       </c>
@@ -4689,11 +4778,12 @@
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
-    </row>
-    <row r="18" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="47">
         <v>15</v>
       </c>
@@ -4701,11 +4791,12 @@
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="47">
         <v>16</v>
       </c>
@@ -4713,11 +4804,12 @@
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-    </row>
-    <row r="20" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="47">
         <v>17</v>
       </c>
@@ -4728,11 +4820,12 @@
         <v>0</v>
       </c>
       <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="47">
         <v>18</v>
       </c>
@@ -4740,11 +4833,12 @@
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
       <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-    </row>
-    <row r="22" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="47">
         <v>19</v>
       </c>
@@ -4752,11 +4846,12 @@
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
       <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="1:9" s="30" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53">
         <v>20</v>
       </c>
@@ -4764,49 +4859,53 @@
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-    </row>
-    <row r="24" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
+    </row>
+    <row r="24" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
       <c r="B24" s="60"/>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
       <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="63"/>
       <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
-    </row>
-    <row r="26" spans="1:8" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" spans="1:9" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B50">
       <formula1>"課題,リスク"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I51">
       <formula1>"OPEN,CLOSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G23">
       <formula1>"重川,玉井,山崎(崇),宮島,山崎(瑞)"</formula1>
     </dataValidation>
   </dataValidations>
